--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/73.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/73.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2231572520747803</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.563576177300258</v>
+        <v>-1.554823056966705</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01139050351145265</v>
+        <v>0.0124041718255703</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.145167734369599</v>
+        <v>-0.1251540812422607</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2058840227014874</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.570122522825748</v>
+        <v>-1.555576225116247</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02142487540974454</v>
+        <v>0.02322712730363383</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1082286536309144</v>
+        <v>-0.0839383905510022</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1934838206439485</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.643503294260786</v>
+        <v>-1.63547343571347</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.03717900451452267</v>
+        <v>-0.03799906847672033</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1150394343687825</v>
+        <v>-0.09097425602321628</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1883146674987355</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.780627118051138</v>
+        <v>-1.781338574693966</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.08720290620857983</v>
+        <v>-0.09838473804629992</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1216770730033075</v>
+        <v>-0.09547437669101494</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.184299856672218</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.826090299341226</v>
+        <v>-1.849059960378367</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.112184163682743</v>
+        <v>-0.1322481854219629</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1196922348913473</v>
+        <v>-0.09466533086266639</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1750154121897505</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.648171047965003</v>
+        <v>-1.670933725487693</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1112129938849005</v>
+        <v>-0.1496788731712467</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1159507914400156</v>
+        <v>-0.09737893982778878</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.156651060585449</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.328200505939196</v>
+        <v>-1.329720221400812</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1204997067005746</v>
+        <v>-0.1613580950512978</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.07555673873007604</v>
+        <v>-0.04987346872781272</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1298134073379046</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8282652746890353</v>
+        <v>-0.8012645506822433</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.05749801735139325</v>
+        <v>-0.1080145870304175</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.08057471168878264</v>
+        <v>-0.0624026609333662</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.09637710039270476</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3008429475236009</v>
+        <v>-0.2489900356105923</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.06117650003787296</v>
+        <v>-0.1228245329427357</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.007552816613401125</v>
+        <v>0.01866719390922573</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.05839014611981488</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2660400390128418</v>
+        <v>0.3409680712441185</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.08904608259962293</v>
+        <v>-0.1444547037076497</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06590035970121677</v>
+        <v>0.09244461816283157</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.01715637863450178</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9135521550379123</v>
+        <v>1.009529544978343</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1619326120305726</v>
+        <v>-0.2377594091801119</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1364982653297952</v>
+        <v>0.1532678650481328</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.02724634708539596</v>
       </c>
       <c r="E13" t="n">
-        <v>1.588949593815946</v>
+        <v>1.710363132756596</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3195375726272892</v>
+        <v>-0.4021169118072084</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2399365059051912</v>
+        <v>0.2607025401725112</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.0738057068245582</v>
       </c>
       <c r="E14" t="n">
-        <v>2.249837724333829</v>
+        <v>2.380095676717068</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.5578645298407902</v>
+        <v>-0.6457672016889484</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3510638298881411</v>
+        <v>0.3693051374848947</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1219741160370945</v>
       </c>
       <c r="E15" t="n">
-        <v>2.949643477625873</v>
+        <v>3.092044987529946</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.853303983861126</v>
+        <v>-0.9449292109311603</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4934291373524244</v>
+        <v>0.5140424917649782</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1729395193142314</v>
       </c>
       <c r="E16" t="n">
-        <v>3.623034042024248</v>
+        <v>3.773475641599925</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.090183630492591</v>
+        <v>-1.180900648529635</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6544166650408161</v>
+        <v>0.6755966663370382</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2271266621884794</v>
       </c>
       <c r="E17" t="n">
-        <v>4.278861701067149</v>
+        <v>4.444607488559233</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.377231201567712</v>
+        <v>-1.480803233768419</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8251017245355414</v>
+        <v>0.8473615029489757</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.2849419611978437</v>
       </c>
       <c r="E18" t="n">
-        <v>4.934730284607205</v>
+        <v>5.123826645763785</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.591355253762533</v>
+        <v>-1.69034059424377</v>
       </c>
       <c r="G18" t="n">
-        <v>0.981711905047596</v>
+        <v>1.005688938322369</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.3461364077631621</v>
       </c>
       <c r="E19" t="n">
-        <v>5.417590556429496</v>
+        <v>5.604467550625041</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.818135993711733</v>
+        <v>-1.926366335501929</v>
       </c>
       <c r="G19" t="n">
-        <v>1.149086802330226</v>
+        <v>1.170605217737528</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.408848818277871</v>
       </c>
       <c r="E20" t="n">
-        <v>5.843036906783223</v>
+        <v>6.043577960970779</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.970010737697355</v>
+        <v>-2.075492055092199</v>
       </c>
       <c r="G20" t="n">
-        <v>1.27718520047904</v>
+        <v>1.297603376520552</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.4709004208197274</v>
       </c>
       <c r="E21" t="n">
-        <v>6.139692290574764</v>
+        <v>6.330208416978756</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.170530542626774</v>
+        <v>-2.271543219736246</v>
       </c>
       <c r="G21" t="n">
-        <v>1.394728226400411</v>
+        <v>1.411307369805071</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.5310472125266056</v>
       </c>
       <c r="E22" t="n">
-        <v>6.464761867544024</v>
+        <v>6.661507961630125</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.274861252043947</v>
+        <v>-2.366022143473198</v>
       </c>
       <c r="G22" t="n">
-        <v>1.492051402689554</v>
+        <v>1.504369676332853</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.5879554365201409</v>
       </c>
       <c r="E23" t="n">
-        <v>6.592660365264432</v>
+        <v>6.782176989526399</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.366955536812129</v>
+        <v>-2.452959941599999</v>
       </c>
       <c r="G23" t="n">
-        <v>1.59413441280151</v>
+        <v>1.603945273984577</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.6398097229988037</v>
       </c>
       <c r="E24" t="n">
-        <v>6.73100090583555</v>
+        <v>6.910339922459187</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.424350570051237</v>
+        <v>-2.502517933634151</v>
       </c>
       <c r="G24" t="n">
-        <v>1.60020855259061</v>
+        <v>1.60577585822265</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.6857605571171825</v>
       </c>
       <c r="E25" t="n">
-        <v>6.811467911354684</v>
+        <v>6.987893418584793</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.432987999979375</v>
+        <v>-2.511751129799701</v>
       </c>
       <c r="G25" t="n">
-        <v>1.647226077762982</v>
+        <v>1.649520997641839</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.7241252797003362</v>
       </c>
       <c r="E26" t="n">
-        <v>6.810945337006412</v>
+        <v>6.971345755562559</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.453843753336609</v>
+        <v>-2.540197590369408</v>
       </c>
       <c r="G26" t="n">
-        <v>1.678261012777668</v>
+        <v>1.666358280182392</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.7538162091499169</v>
       </c>
       <c r="E27" t="n">
-        <v>6.750584851742773</v>
+        <v>6.897091403515199</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.365959969717907</v>
+        <v>-2.43485793469548</v>
       </c>
       <c r="G27" t="n">
-        <v>1.638117229108015</v>
+        <v>1.628193038548214</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.7740741187972217</v>
       </c>
       <c r="E28" t="n">
-        <v>6.633495143328337</v>
+        <v>6.75974092097138</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.305098946373694</v>
+        <v>-2.355485659475211</v>
       </c>
       <c r="G28" t="n">
-        <v>1.588397113104369</v>
+        <v>1.565329862881708</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.7850686981463915</v>
       </c>
       <c r="E29" t="n">
-        <v>6.481647944677338</v>
+        <v>6.593203401861282</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.22367493722881</v>
+        <v>-2.271962695832072</v>
       </c>
       <c r="G29" t="n">
-        <v>1.539534837521832</v>
+        <v>1.511051387502775</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.7864750376784244</v>
       </c>
       <c r="E30" t="n">
-        <v>6.30608342590658</v>
+        <v>6.398333538567771</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.182164904961868</v>
+        <v>-2.221056556420526</v>
       </c>
       <c r="G30" t="n">
-        <v>1.47137666153127</v>
+        <v>1.443174960934925</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.7788368314394156</v>
       </c>
       <c r="E31" t="n">
-        <v>6.034569849539576</v>
+        <v>6.105950042671441</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.009738980318984</v>
+        <v>-2.017918370682823</v>
       </c>
       <c r="G31" t="n">
-        <v>1.39293541862125</v>
+        <v>1.362745731874702</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.7631644770116912</v>
       </c>
       <c r="E32" t="n">
-        <v>5.78263549702243</v>
+        <v>5.835574482129136</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.890553465444535</v>
+        <v>-1.886073807025314</v>
       </c>
       <c r="G32" t="n">
-        <v>1.31340495447929</v>
+        <v>1.273461071238042</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.7409956273164275</v>
       </c>
       <c r="E33" t="n">
-        <v>5.434341267918378</v>
+        <v>5.466287560004297</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.826896984140893</v>
+        <v>-1.813313986133628</v>
       </c>
       <c r="G33" t="n">
-        <v>1.236232370981039</v>
+        <v>1.192935827011421</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.7140314900670359</v>
       </c>
       <c r="E34" t="n">
-        <v>5.135543644102747</v>
+        <v>5.148751238549581</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.747761598798379</v>
+        <v>-1.731554710915907</v>
       </c>
       <c r="G34" t="n">
-        <v>1.121963304831972</v>
+        <v>1.072605213226225</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.6849270528643184</v>
       </c>
       <c r="E35" t="n">
-        <v>4.741047231731156</v>
+        <v>4.732682894120564</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.699277087804954</v>
+        <v>-1.679172141568581</v>
       </c>
       <c r="G35" t="n">
-        <v>1.047302855851317</v>
+        <v>1.000782720721275</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.6556612463400718</v>
       </c>
       <c r="E36" t="n">
-        <v>4.283952078905436</v>
+        <v>4.26026309112986</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.622351625308747</v>
+        <v>-1.592247722604311</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9832150933084381</v>
+        <v>0.9306585948482081</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6280569874133811</v>
       </c>
       <c r="E37" t="n">
-        <v>3.918453820805567</v>
+        <v>3.878204577854787</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.586710323335575</v>
+        <v>-1.558243400517291</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9032014052962389</v>
+        <v>0.8536638755106637</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6041457267184787</v>
       </c>
       <c r="E38" t="n">
-        <v>3.578560131751896</v>
+        <v>3.523798432502725</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.497926200779488</v>
+        <v>-1.465499045852012</v>
       </c>
       <c r="G38" t="n">
-        <v>0.810740374072794</v>
+        <v>0.7562037595579677</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.584340692222615</v>
       </c>
       <c r="E39" t="n">
-        <v>3.157684732926427</v>
+        <v>3.08575678114035</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.472168164868963</v>
+        <v>-1.439277461310264</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7445103715058249</v>
+        <v>0.6958369782178437</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5687910666835512</v>
       </c>
       <c r="E40" t="n">
-        <v>2.754696487395418</v>
+        <v>2.665186742024412</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.465340069920761</v>
+        <v>-1.434511331410966</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6737550639651164</v>
+        <v>0.6235485760529883</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5569004660295535</v>
       </c>
       <c r="E41" t="n">
-        <v>2.406990941442733</v>
+        <v>2.316138557761257</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.433226931807984</v>
+        <v>-1.398440322217678</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6215306835394808</v>
+        <v>0.5706552375008</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5474955674354037</v>
       </c>
       <c r="E42" t="n">
-        <v>2.037189315065228</v>
+        <v>1.938569147020133</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.400521175496038</v>
+        <v>-1.36771704298901</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5562812948850822</v>
+        <v>0.506853946437998</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5393112623586102</v>
       </c>
       <c r="E43" t="n">
-        <v>1.795084711960605</v>
+        <v>1.701770562373415</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.374695456763297</v>
+        <v>-1.348721780233154</v>
       </c>
       <c r="G43" t="n">
-        <v>0.480591437399096</v>
+        <v>0.4312097355065295</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.530990744437411</v>
       </c>
       <c r="E44" t="n">
-        <v>1.575373678894727</v>
+        <v>1.49398272415139</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.371726856700524</v>
+        <v>-1.348966540206516</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4107648011399548</v>
+        <v>0.3669582749750354</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5214673577157873</v>
       </c>
       <c r="E45" t="n">
-        <v>1.354836285790167</v>
+        <v>1.271487251259931</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.30067484655545</v>
+        <v>-1.277908233984957</v>
       </c>
       <c r="G45" t="n">
-        <v>0.353706607992805</v>
+        <v>0.3062861339253791</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.5098779414142143</v>
       </c>
       <c r="E46" t="n">
-        <v>1.131349180852288</v>
+        <v>1.047793949817163</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.239396708144093</v>
+        <v>-1.218047499792331</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3132873709769246</v>
+        <v>0.2735103337625349</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.496053287713106</v>
       </c>
       <c r="E47" t="n">
-        <v>1.002211930083416</v>
+        <v>0.9226090610618765</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.18755087931713</v>
+        <v>-1.164266414455729</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2388866351512837</v>
+        <v>0.1959946140958399</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.4799262351847059</v>
       </c>
       <c r="E48" t="n">
-        <v>0.831035776622845</v>
+        <v>0.7650119705607663</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.11278811909359</v>
+        <v>-1.090902170221465</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1764752029725901</v>
+        <v>0.1428982270770038</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.4619126706624428</v>
       </c>
       <c r="E49" t="n">
-        <v>0.667424359059245</v>
+        <v>0.5987750891028368</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.051734278407018</v>
+        <v>-1.034900930914268</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1304005152538764</v>
+        <v>0.0952668344473237</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.4424812357255968</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5861719179985823</v>
+        <v>0.5224272916241469</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.993180767094633</v>
+        <v>-0.9817148248055181</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1121655037336079</v>
+        <v>0.08543708503480091</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.4226045111008838</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4659829659343043</v>
+        <v>0.4040657757596992</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9728342089231397</v>
+        <v>-0.9642188152627003</v>
       </c>
       <c r="G51" t="n">
-        <v>0.09948048363504565</v>
+        <v>0.08112584666155832</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4028557448839105</v>
       </c>
       <c r="E52" t="n">
-        <v>0.322267150063945</v>
+        <v>0.2755565586202258</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9693265073113211</v>
+        <v>-0.9715136068803684</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0442166722861785</v>
+        <v>0.02083776627749938</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.3841590629348379</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2573608975779899</v>
+        <v>0.2068002553635691</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9417890427841655</v>
+        <v>-0.9297092330377433</v>
       </c>
       <c r="G53" t="n">
-        <v>0.04737100660526507</v>
+        <v>0.03212348337722531</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3672694429571252</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1487803365333045</v>
+        <v>0.1169835762639093</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9078823098826667</v>
+        <v>-0.9035820896432732</v>
       </c>
       <c r="G54" t="n">
-        <v>0.008125987853875026</v>
+        <v>-0.005399558455461784</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3522118716123845</v>
       </c>
       <c r="E55" t="n">
-        <v>0.09217546089308916</v>
+        <v>0.07774170555076185</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9179269129052471</v>
+        <v>-0.9208923649297776</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.005824543618212969</v>
+        <v>-0.01838679022531376</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.3388283639670353</v>
       </c>
       <c r="E56" t="n">
-        <v>0.01394828458356627</v>
+        <v>0.002942742887431861</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9267508640992588</v>
+        <v>-0.9356495812015322</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.03992409386207107</v>
+        <v>-0.04956338696091648</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.3267375218004135</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.08289009381621594</v>
+        <v>-0.0903304822026043</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9543867048214956</v>
+        <v>-0.9704054974189726</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.0777351811939562</v>
+        <v>-0.0866944980323997</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.3156561335336655</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.122920548109135</v>
+        <v>-0.1253461115750594</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9525482504878163</v>
+        <v>-0.9729498993285552</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1040937053992575</v>
+        <v>-0.1111122566611373</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.3050019762370365</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1965673287756729</v>
+        <v>-0.1956449535705907</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9604136240369558</v>
+        <v>-0.9780615264249792</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1176271218042008</v>
+        <v>-0.1213024564524379</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.2945738614165944</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2755248499574793</v>
+        <v>-0.2684590781219605</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9951356988432885</v>
+        <v>-1.022381969833003</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1266761577325585</v>
+        <v>-0.1282753611598</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.2839320028418825</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3529728868019584</v>
+        <v>-0.3394851169515328</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.9761325659918252</v>
+        <v>-1.002972740048244</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1637348639244619</v>
+        <v>-0.1657842368203954</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.2726935579215755</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4769772612162692</v>
+        <v>-0.4677928596434796</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.008229963913389</v>
+        <v>-1.046711583390948</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1854878081808374</v>
+        <v>-0.18793540791446</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.2614232034341348</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5290647019783515</v>
+        <v>-0.524413475474908</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.035344804306475</v>
+        <v>-1.082530749524827</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.219401624168382</v>
+        <v>-0.2229242789618529</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.2502410356684301</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6697772893652691</v>
+        <v>-0.6659036283077481</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.075223365754189</v>
+        <v>-1.125879236125448</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2676752165995528</v>
+        <v>-0.2746245110200953</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.2394742316329717</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8305460283958001</v>
+        <v>-0.8321617590238152</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.138426529550897</v>
+        <v>-1.196979253853721</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3290698324258861</v>
+        <v>-0.3401997216326033</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.2296935353917792</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9397766593375826</v>
+        <v>-0.9452817912143318</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.166821834499161</v>
+        <v>-1.225698806740974</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3624343157400968</v>
+        <v>-0.3720783308963061</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.2209896093948815</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.026170633857974</v>
+        <v>-1.041446489430197</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.225184889497869</v>
+        <v>-1.291584886129939</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4217228939821298</v>
+        <v>-0.4388844244616712</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.214559617259709</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.124836448457586</v>
+        <v>-1.155616392374621</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.28606794910978</v>
+        <v>-1.362963505242682</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4422732876298316</v>
+        <v>-0.4528050495704545</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.211539648479326</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.28206285745563</v>
+        <v>-1.331731030828273</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.342453249082574</v>
+        <v>-1.422318979297371</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4749326103776996</v>
+        <v>-0.4887824046260243</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.2127133984199657</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.338955778595043</v>
+        <v>-1.393336565216861</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.429058142165219</v>
+        <v>-1.51680577312993</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5120684435065467</v>
+        <v>-0.5315878546297965</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.2193829406404119</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.396521592908813</v>
+        <v>-1.457941393041087</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.465646216639854</v>
+        <v>-1.562268167410457</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.567464472461603</v>
+        <v>-0.5940528034586143</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.2318552472827254</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.469226323131252</v>
+        <v>-1.536387358008471</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.512836096906009</v>
+        <v>-1.606748373759293</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5581478532826243</v>
+        <v>-0.5905081123974452</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.2501967745645176</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.516498052391715</v>
+        <v>-1.604285820844018</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.51909360992274</v>
+        <v>-1.609840534323089</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5861827078521109</v>
+        <v>-0.6238395413101085</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.274148096495499</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.563842186531758</v>
+        <v>-1.660098177856659</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.552177130823799</v>
+        <v>-1.640971484504174</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5922143491249351</v>
+        <v>-0.6281051331288334</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.3031908507122029</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.559798531409136</v>
+        <v>-1.666534342043657</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.542577188202986</v>
+        <v>-1.626100151846125</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6117321862290637</v>
+        <v>-0.6489624605051888</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.3361907266837694</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.474042034632872</v>
+        <v>-1.578804812298842</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.606286399147192</v>
+        <v>-1.700188444876187</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5938906794891203</v>
+        <v>-0.6325076646111114</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.3724662687987597</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.417225453420841</v>
+        <v>-1.51559613943521</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.615068638834489</v>
+        <v>-1.707679988884018</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5693658875601343</v>
+        <v>-0.6062876540884845</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.4112291834946102</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.246467989046536</v>
+        <v>-1.342577596593156</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.562351590423886</v>
+        <v>-1.647014143910847</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5297305120666617</v>
+        <v>-0.5656700906633203</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.4511829733397598</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.124480720136172</v>
+        <v>-1.217487148985148</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.538497330640574</v>
+        <v>-1.613573320669253</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5347044124899719</v>
+        <v>-0.5785392709990748</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.4913496676380023</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.944353906942325</v>
+        <v>-1.03083681354307</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.50425769269492</v>
+        <v>-1.571797279170812</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5211851622571203</v>
+        <v>-0.5661517405144383</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.5308569071533742</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.7986847333424315</v>
+        <v>-0.8848300128416575</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.470657893522075</v>
+        <v>-1.528662072161127</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4887099997464445</v>
+        <v>-0.5304640049771878</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.5688611752529936</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.5903758947912559</v>
+        <v>-0.6610619454906271</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.464196545029136</v>
+        <v>-1.515545770823328</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4416137736180066</v>
+        <v>-0.4773518777671387</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.6049562256665447</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.3825502801103196</v>
+        <v>-0.4485095513884249</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.372386370712349</v>
+        <v>-1.404381457391028</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3585575066443332</v>
+        <v>-0.3910578534609498</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.6390468728379656</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.1923096070525546</v>
+        <v>-0.2499218549304023</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.342375335136069</v>
+        <v>-1.363172849785815</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.336052181247976</v>
+        <v>-0.3677781106569126</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.6697587720493371</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0003267231078301183</v>
+        <v>-0.053942308156375</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.220075623430127</v>
+        <v>-1.233104566706694</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3077151150071997</v>
+        <v>-0.345307413681224</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.6958892526086767</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2621600818788356</v>
+        <v>0.2172958148644021</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.115559966766201</v>
+        <v>-1.119163683544419</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2439767847092496</v>
+        <v>-0.2816084338613065</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.7157563482990005</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4936321858190722</v>
+        <v>0.4571133681857749</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9869948719479212</v>
+        <v>-0.9794702735385433</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.180779916989027</v>
+        <v>-0.213968110161652</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.7269862373282207</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6646226050233298</v>
+        <v>0.6277150046670713</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8384696406524277</v>
+        <v>-0.8268392133651369</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1569807478749606</v>
+        <v>-0.1911857573999459</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.7275298530087021</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8453499065119534</v>
+        <v>0.8174693058163544</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.722511651986206</v>
+        <v>-0.7132863259162627</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1006072530455765</v>
+        <v>-0.1283052675231047</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.7156267746561433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9816221859576818</v>
+        <v>0.9591625071158423</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5392737899991078</v>
+        <v>-0.5170092895283095</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.08204327152895617</v>
+        <v>-0.1111941056554449</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.6900719708618628</v>
       </c>
       <c r="E91" t="n">
-        <v>1.10142392931812</v>
+        <v>1.083464371144079</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3426032488308294</v>
+        <v>-0.3186639920149673</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1025039460867438</v>
+        <v>-0.1323678108751818</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.6501034803587937</v>
       </c>
       <c r="E92" t="n">
-        <v>1.161077679996295</v>
+        <v>1.148986065106463</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.2033607953032067</v>
+        <v>-0.1820485764007954</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.0647274871755273</v>
+        <v>-0.09362490422348664</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.5979698369714103</v>
       </c>
       <c r="E93" t="n">
-        <v>1.192421122758755</v>
+        <v>1.178646881428253</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.1013769483958925</v>
+        <v>-0.08179300248866936</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.06303069456276517</v>
+        <v>-0.08953717656546875</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.537415595432694</v>
       </c>
       <c r="E94" t="n">
-        <v>1.176032435667772</v>
+        <v>1.170899559313211</v>
       </c>
       <c r="F94" t="n">
-        <v>0.04871049687749196</v>
+        <v>0.07492735936187622</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.02744212223015662</v>
+        <v>-0.0498262481541737</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.472965987400987</v>
       </c>
       <c r="E95" t="n">
-        <v>1.186093565891126</v>
+        <v>1.188259416202036</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1299896962632169</v>
+        <v>0.1579379797810319</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.06250654619537203</v>
+        <v>-0.0832599883097216</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.4089415981630283</v>
       </c>
       <c r="E96" t="n">
-        <v>1.106038953381773</v>
+        <v>1.107778244510811</v>
       </c>
       <c r="F96" t="n">
-        <v>0.210568457139963</v>
+        <v>0.2431679671612215</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.09053195665013078</v>
+        <v>-0.1062658517866525</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.3501295085361205</v>
       </c>
       <c r="E97" t="n">
-        <v>1.055501921454172</v>
+        <v>1.06060646546455</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2582392002476756</v>
+        <v>0.2931430742625183</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05766328935912982</v>
+        <v>-0.07185464575677682</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.2970478643625943</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9384972100722856</v>
+        <v>0.9380029680681972</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2403520469532146</v>
+        <v>0.2716844715818261</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1145436183455728</v>
+        <v>-0.1282564729303444</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.2513540228221991</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9039018438052178</v>
+        <v>0.9101790320609648</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2217990835704434</v>
+        <v>0.2455179777093235</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1016303654744219</v>
+        <v>-0.1134953216107865</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.2071840575488102</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8474905725169224</v>
+        <v>0.8504623206179381</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2143303628398716</v>
+        <v>0.2392502335683041</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1034987261714058</v>
+        <v>-0.113744016631952</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.1648189755909065</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7884900397740874</v>
+        <v>0.7944870526262431</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1915590282120146</v>
+        <v>0.2100411607343272</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.09074602325062768</v>
+        <v>-0.09842566254345374</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.1133999617422968</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7764078689989833</v>
+        <v>0.784813131106729</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1636186147898061</v>
+        <v>0.1754898670026559</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.07488305854615934</v>
+        <v>-0.08053850924899272</v>
       </c>
     </row>
   </sheetData>
